--- a/results/posts.xlsx
+++ b/results/posts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,351 +482,350 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1cxmepk</t>
+          <t>1cyg6yp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ATP defense </t>
+          <t>Jump vs standing slam: best way to punish a pop up</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I don’t think I’ve ever successfully defended against an ATP, usually get bagged or let it go then it ends up being in haha. Any good tips besides staying within the lines I assume haha. 
-thanks!</t>
+          <t xml:space="preserve">I’ve been playing about 5 months. When I started I found myself kind of instinctually jump slamming the pop up’s sent my way and felt that mostly was successful. But then a few months ago I realized I was no longer jumping, just standing and swatting it real hard out of the air. Idk if I’m just lazier or if subconsciously I’ve learned it isn’t worth the effort. 
+How do you all approach pop up’s? 
+</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Awkward_Somewhere416</t>
+          <t>Annual-Cable-3886</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxmepk/atp_defense/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyg6yp/jump_vs_standing_slam_best_way_to_punish_a_pop_up/</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45433.99005787037</v>
+        <v>45435.03384259259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1cxh6av</t>
+          <t>1cyi1qe</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strong people</t>
+          <t>R2 PULSAR FX vs Mach 2 forza</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">For physically bigger and stronger people, do you prefer a lighter paddle to help with speed, or do you prefer a heavier paddle?
-Just curious </t>
+          <t xml:space="preserve">I am thinking about getting 14 mm version
+I am currently using diadem 18k and this is my first racket. I am playing at 3.5 level
+I have good table tennis and badminton background.  I want to try wide body paddle. I think I will enjoy the shape and bigger sweet spot.
+My goal is to have strong control and accuracy and spin. I play power game and I want to move to software game
+Pls let me know ur thoughts </t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No_Bowl_3591</t>
+          <t>justlearning_here</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxh6av/strong_people/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyi1qe/r2_pulsar_fx_vs_mach_2_forza/</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45433.83204861111</v>
+        <v>45435.1003587963</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1cxl10k</t>
+          <t>1cyi8v9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vatic Prism Long Handles</t>
+          <t>Paddle cleaner?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Since it’s one of the most suggested paddles on this sub, figured I’d share the announcement. 
-Vatic Pro has announced the releases of their LH (Long Handle) paddles for their Prism line. So if you’ve wanted to try the Prism paddles but wished they had longer handles, they’re  here and with 5.75” long handles. 
-</t>
+          <t>I have the new gen 3 Joola and it’s lost most of its grit.. is there anyway to bring it back?</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>switcheroo13</t>
+          <t>compliantish</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://vaticpro.com?sca_ref=3407802.OgId5HfQc4</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyi8v9/paddle_cleaner/</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45433.94543981482</v>
+        <v>45435.10771990741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1cxwprt</t>
+          <t>1cyiwda</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Can someone explain the pickleball paddle drama?</t>
+          <t>Does playing Pickleball make your muscles bigger?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hi everyone! I'm new(ish) to pickleball and can't understand what's going on with all this paddle drama. Can someone help out? I've tried piecing together the seemingly multi-year story via social media but it's hard to follow. What's the deal with the paddles, sanctioning and governing body madness?</t>
+          <t xml:space="preserve">I have been playing pickleball for almost half a year, and it has really made me healthier. Seeing this picture of my friend, I am curious whether your muscles have grown? Mine didn't. hahaha
+https://preview.redd.it/xjibvbcye32d1.jpg?width=3024&amp;format=pjpg&amp;auto=webp&amp;s=0f2af0ef12052e5fd5ef53710d515e1edef0d3c4
+</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Efficient_Wheel_7966</t>
+          <t>Interesting-Emu8070</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxwprt/can_someone_explain_the_pickleball_paddle_drama/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyiwda/does_playing_pickleball_make_your_muscles_bigger/</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45434.42420138889</v>
+        <v>45435.13216435185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1cxvbzi</t>
+          <t>1cyj5gx</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Just read that you shouldn't slice a slice. </t>
+          <t>Pickleball Club</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Just read that you shouldn't slice a slice. Does that also apply at the kitchen backhand to backhand. Am I dreaming or do the pros do is a lot or are they avoiding it. Hard to tell. Any insight would be great and what does everyone do at the kitchen when you receive a slice?</t>
+          <t>Does anyone know of some famous pickleball clubs?</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Material_City5212</t>
+          <t>Neither_Style_560</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxvbzi/just_read_that_you_shouldnt_slice_a_slice/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyj5gx/pickleball_club/</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45434.35481481482</v>
+        <v>45435.14166666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1cxd8pf</t>
+          <t>1cyjtzl</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>How to stop myself from overextending my arm?</t>
+          <t>New pickups today</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>i'm new-ish (4 months), and have already torn my shoulder blade / hurt my shoulder 4 times.  
-My shoulders are strong and I've seen a PT, so it's not a weakness.
-The issue seems to be that I have a bad habit of Over-reaching for balls, whether that's overhead (jumping and swinging) or too far to my right (reaching too far), and then I feel that "tearing" feeling in my shoulder.
-I don't know how to train myself to NOT do this.  When a game is moving fast, I just lunge for the balls whether I mean to or not.
-Any advice or drills?</t>
+          <t xml:space="preserve">Had a bad day at work so I got a little reckless at my local store. Got a Ruby and Magnus 
+</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TaxQuestionGuy69</t>
+          <t>Illustrious_Bad8392</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxd8pf/how_to_stop_myself_from_overextending_my_arm/</t>
+          <t>https://i.redd.it/0elmwcqbo32d1.jpeg</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45433.72078703704</v>
+        <v>45435.16851851852</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1cy1dta</t>
+          <t>1cylaln</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Quick edge case question: the ball landed in our kitchen, then a combination of wind/spin made the ball bounce back over the net without being hit. Whose point is it?</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>This happened a couple of days ago, and we weren't 100% sure how to score it. Thanks!</t>
-        </is>
-      </c>
+          <t>This shot at my local comp - Never seen anything like it</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>auroch27</t>
+          <t>gatzi</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cy1dta/quick_edge_case_question_the_ball_landed_in_our/</t>
+          <t>https://youtube.com/shorts/20EBHuKTwOw?si=a6rPsaVdjTEP_4sJ</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45434.59655092593</v>
+        <v>45435.2296875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1cy43z6</t>
+          <t>1cyn3i9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>How to know if drop is good enough to move in on?</t>
+          <t>Looking to change my Paddle</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>My partner states its better to stay back on a drop in case the roll volley/attack flies past us and to only move up on a drop if opponent sends back a shallow shot allowing us to reset from that shallower position. I feel if the drop arc is good and relatively unattackable (aka they have to step back or hit from far below the net), it's ok to move in and then stop right before they hit the ball. The issue is that I move in and my partner is still behind and this causes an open lane down the middle. And then we point figures with him saying I moved in too soon and me saying he keeps staying back.</t>
+          <t>I’ve been using the Selkirk power air for quite a while now and it’s burning a hole in my pocket with how fast the spraying grit dies out. I’ve been wanting to switch over to carbon paddles but it’s  a struggle as I’m just so used to the feeling that I get from Selkirk paddles. 
+I’m also a power player and drive a lot. So core crushing is a big worry for me too. I also have pretty big hands so I need a longer handle. The amount of miss hit I get from using my power air on a double backhand is wild cuz of how little handle I can hold on to. 
+Any recommendations?</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CDRSkywalker1991</t>
+          <t>TopWorldliness3403</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cy43z6/how_to_know_if_drop_is_good_enough_to_move_in_on/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyn3i9/looking_to_change_my_paddle/</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45434.6752662037</v>
+        <v>45435.31418981482</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1cxdsga</t>
+          <t>1cyrmgx</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Meaning of “allow dish to pass”?</t>
+          <t>What’s The Most Blatent Form of Cheating You’ve Experienced?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Registering for a few tournaments this summer and I see this as a line on the event info page:
-*Allow Dish to Pass* - No
-What does this mean?</t>
+          <t>I’ve played with people who take it past the point of bad calls, I’m talking about flat out cheating. Calling balls out, claiming they have the first possession instead of the second and sometimes it really gets under my skin.
+I know the receiving team gets to make the call but sometimes it’s blatant. I was at the court yesterday and there was a 5 minute conversation around if a ball that was clearly in, was out or not.
+What was your craziest experience?</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mcpops1618</t>
+          <t>danni2122</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxdsga/meaning_of_allow_dish_to_pass/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyrmgx/whats_the_most_blatent_form_of_cheating_youve/</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45433.73673611111</v>
+        <v>45435.52170138889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1cxd3wu</t>
+          <t>1cyrube</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournament Software Recommendations </t>
+          <t>Team formats in pickleball</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">I’s setting up a fundraising tournament for our not-for-profit and am having a hard time with registration. Can anyone recommend a tournament software that can take registration and payment? I’ve gone through a couple but they are difficult to set up. </t>
+          <t>Hi all - I'm wondering if anyone has experience running team events in pickleball. I know there is the MLP style, but what else? What is the most fun and not super difficult to organize?</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -834,104 +833,114 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dawg2810</t>
+          <t>Efficient_Wheel_7966</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxd3wu/tournament_software_recommendations/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyrube/team_formats_in_pickleball/</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45433.71693287037</v>
+        <v>45435.52960648148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1cy1ubj</t>
+          <t>1cystbk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>New paddle day 😊</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>Help me decide - B&amp;b Shogun or 6.0 Ruby or bison. Thanks</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hello pickelers ,  I recently got into pickleball and seriously hooked. Playing 2-3 times a week, 2-3 hour sessions . 
+I wont consider myself as a beginner. After researching for a week. I am not able to decide which paddle should I invest on. I like both power and control...leaning towards control.
+So here is my dilemma. Should I go for high end Shogun/Ruby or should I get bison improve my game then invest in high end paddles 
+Also if it's you which one would you prefer between Shogun and Ruby....
+Thank you so much.
+Just keep dinking....</t>
+        </is>
+      </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>dudewheresmymayo</t>
+          <t>mail_sunny</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://i.redd.it/87vf4f9yoz1d1.jpeg</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cystbk/help_me_decide_bb_shogun_or_60_ruby_or_bison/</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45434.61042824074</v>
+        <v>45435.5624537037</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1cxz9hs</t>
+          <t>1cyt4u3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14mm vs 16mm</t>
+          <t>Visiting Walnut Creek - Suggestions for Open Play</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Looking for opinions on why one is better than the other. What's one thing about either that isn't obvious. I've only been playing for 3 months </t>
+          <t xml:space="preserve">Will be in the Walnut Creek, California area for the memorial day weekend and finding it incredibly difficult to find information on open play at local pickleball courts. Already found Rudgear Park but looks like they are closed Thursday, will try there this weekend. 
+Anyone have suggestions for other locations that have open play availability. Looking for games in the 3.5+ range. I don't mind a short drive if needed. I saw Concord Willow Pass but can't make sense of their schedule.
+Any feedback would be appreciated, would really like to get out and enjoy this weather. </t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Final-Duty-2944</t>
+          <t>Different_Attitude90</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxz9hs/14mm_vs_16mm/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyt4u3/visiting_walnut_creek_suggestions_for_open_play/</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45434.52840277777</v>
+        <v>45435.5728125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1cxrjua</t>
+          <t>1cytb4c</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>App that keeps track of the locations you’ve played</t>
+          <t>If they engineer a quiet paddle/ball will this sport explode even further?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Is there an app for logging the locations you’ve played at? 
-I take a lot of trips, and I’d like to track the locations I’ve played so I have a log of them.</t>
+          <t>I think so</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -939,183 +948,177 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Electrical-Virus4891</t>
+          <t>Vast_Pepper3431</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxrjua/app_that_keeps_track_of_the_locations_youve_played/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cytb4c/if_they_engineer_a_quiet_paddleball_will_this/</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45434.17722222222</v>
+        <v>45435.5784375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1cy3apo</t>
+          <t>1cyu61p</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">How many of you actually play singles and are good? Like 4.5 plus… </t>
+          <t>(Edge Guard Gap)--Is this enough of a gap that it would be worth exchanging for a different paddle?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">I see people post all the time that they are high ranked players (4.5 plus) but fail to mention until later they are a doubles player and are only ranked in doubles, also I really only see doubles play on courts and I’m only challenged by doubles players, a lot if not all courts are doubles player dominated…. where are the singles at? 
-(It’s even worse that I’m a women because like little to no women play singles games)  </t>
+          <t xml:space="preserve">I was gifted this paddle and am a little bit particular. Is this gap in the edge guard at the bottom a concern for coming loose later on? Just want to make sure it lasts, and am relatively new so I don't have personal experience long-term.
+https://preview.redd.it/v6ml5of8s62d1.jpg?width=1576&amp;format=pjpg&amp;auto=webp&amp;s=b92d6a227d6dedd476a0f32d4de826a80515b15c
+</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kokomoz_420</t>
+          <t>Dapper-Tadpole3856</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cy3apo/how_many_of_you_actually_play_singles_and_are/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyu61p/edge_guard_gapis_this_enough_of_a_gap_that_it/</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45434.65273148148</v>
+        <v>45435.60414351852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1cxg8eg</t>
+          <t>1cyue3v</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Which is the better all around paddle?</t>
+          <t>Super back spin</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>I am looking for a paddle to do everything well and I’ve narrowed it down to these two as they are in my budget, thanks!
-[View Poll](https://www.reddit.com/poll/1cxg8eg)</t>
+          <t>Playing today and was coming to the kitchen after third shot. Fourth shot had preposterous back spin so when it landed in my kitchen it bounced up and back over the net into their kitchen. I called it their point sine I didn’t hit the ball but I was just guessing. Anyone know the actual answer?</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>No-Hedgehog2893</t>
+          <t>ChocolateLawBear</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxg8eg/which_is_the_better_all_around_paddle/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyue3v/super_back_spin/</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45433.80535879629</v>
+        <v>45435.61079861111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1cxevox</t>
+          <t>1cyuuf0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PCI vs IPTPA Rating Assessment Courses – What's the Difference?</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Hey everyone,
-I saw that PCI just released their new Rating Assessment Course, and I'm curious if anyone here has done the IPTPA Rating course. What's the difference between the two? The PCI one is supposed to be based on quantifiable metrics. How is the IPTPA course structured and what's it based on?
-Thanks in advance!</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Who is playing Pickleball on college campuses? </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RayquanPalomino</t>
+          <t>Fermented_Fool2023</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxevox/pci_vs_iptpa_rating_assessment_courses_whats_the/</t>
+          <t>/r/CampusPickleball/comments/1cyutv4/who_is_playing_pickleball_on_college_campuses/</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45433.76755787037</v>
+        <v>45435.62427083333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1cy53az</t>
+          <t>1cyw3mj</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Will climbing help build pickle ball strength? </t>
+          <t>What do you do with your old paddles?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Just wondering if anyone has thoughts on whether these two sports compliment one another? I've been trying to get stronger forearms and want to use climbing to build that strength? Any pitfalls to this combo anyone can think of? Thank you for your thoughts. </t>
+          <t>I've only been playing a year, but I ended up buying three paddles, just looking for the right fit. What do you do with the old paddles? For now, I keep them around for company who wants to play, but I could afford to get rid of a few.</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NKVDKGBFBI</t>
+          <t>oaklandrichieg</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cy53az/will_climbing_help_build_pickle_ball_strength/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyw3mj/what_do_you_do_with_your_old_paddles/</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45434.70289351852</v>
+        <v>45435.660625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1cy38se</t>
+          <t>1cywmrg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Taping lines on tennis courts</t>
+          <t>What is this flap for on the Franklin X-40 ball container</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Seeking recommendations on what tape to use when taping lines on a tennis court. Are the “court tapes” worth it or are other alternatives just as effective? I’ve been using painters tape to mark corners and NVZ and completing with chalk as a temporary solution.</t>
+          <t>New to pickle. I searched this sub and the internet and cannot find an answer. My guess is so you know which ones you’ve opened/used already</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1123,127 +1126,120 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>old_dood</t>
+          <t>Soy__Sauce</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cy38se/taping_lines_on_tennis_courts/</t>
+          <t>https://i.redd.it/p9xiffqja72d1.jpeg</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45434.65108796296</v>
+        <v>45435.67538194444</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1cy27jt</t>
+          <t>1cyy4j6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chelsea NYC pickleball games</t>
+          <t>Pickleball in New Haven, CT?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hey all, I’m going to be visiting NYC this weekend with my wife and want to get in some games on Saturday and Sunday morning! I’m staying in the Chelsea area and would love any suggestions on where to play some pick up pickleball! Thank you! </t>
+          <t xml:space="preserve">Looking for open play near downtown. 
+</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Unusual-Salt-9150</t>
+          <t>Environmental_Soft36</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cy27jt/chelsea_nyc_pickleball_games/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyy4j6/pickleball_in_new_haven_ct/</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45434.62142361111</v>
+        <v>45435.7181712963</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1cy0o91</t>
+          <t>1cyzm9p</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Any personal experience returning to Pickleball after clavicle fracture</t>
+          <t>Adrenaline - Heart Rate</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not seeking medical advice.   For those who’ve fractured your clavicle:  after being cleared to resume sport, how long did it take to return to your pre-injury level of performance … or did you not get it back?   Suggestions? </t>
+          <t>Hey all!
+I'm newer to pickleball - I've only been playing a month. My resting heart rate is 65-66 (I'm 34, M). When I play doubles, my heart rate is consistently 160-180 for the entire match. Is that normal? Sometimes it doesn't feel like what I'm doing is intense enough to warrant 160-180 HR lol. Does anyone else get adrenaline spikes when playing? Hopefully this subsides the more I play :/</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ermardis</t>
+          <t>stormxcrow</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cy0o91/any_personal_experience_returning_to_pickleball/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cyzm9p/adrenaline_heart_rate/</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45434.57497685185</v>
+        <v>45435.76125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1cxrh25</t>
+          <t>1cz01ia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Help Finding a Similar Paddle</t>
+          <t>Line Call Tech &amp; The Future of Pickleball</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>So I lost my Hudef Apex Pro 16mm and need to grab something similar while I wait for a replacement to get here from them as their shipping is slow.  My backup is a legacy pro and I played terribly with it and it flared up my tennis elbow.
-Can someone recommend something I can grab off Amazon that is close.  The Apex Pro has a short handle which I prefer as I don't hit two handed backhands.  These are the specs.  Many thanks.
-Face: T700 raw carbon fiber  
-● Paddle Shape: Wide body  
-● Weight: 7.8-8.3OZ  
-● Swing Weight: 103(14mm), 112(16mm)  
-● Twist Weight: 6.56(14mm), 6.92(16mm)  
-● Core Material: Polypropylene Honeycomb  
-● Paddle Length: 16.06"  
-● Paddle Width: 7.90"  
-● Paddle Thickness: 0.55"(14mm)/0.63"(16mm)  
-● Grip Length: 4.90"  
-● Grip Circumference: 4 1/8"(14mm), 4 1/4"(16mm)</t>
+          <t>After watching nearly every pro tournament for the last year, it's seriously time the governing bodies figure out a solution to line calls. So many critical moments in games have had the tide shift due to ATROCIOUS line calls.
+I know the Hawkeye system used in tennis is unfeasable since its around $100k+ per tournament. There just isnt that level of financing right now.
+It really hurts the image of Pickleball as a true professional sport when players have to make their own outcalls. This hurts its chances to grow internationally when America is setting the standard right now.
+ITT: let's discuss potentially viable solutions to affordable line calling tech. Any Chinese companies with affordable solutions?</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pickleravegg</t>
+          <t>defcon1memes</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1251,64 +1247,65 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxrh25/help_finding_a_similar_paddle/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cz01ia/line_call_tech_the_future_of_pickleball/</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45434.17400462963</v>
+        <v>45435.7734837963</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1cxp872</t>
+          <t>1cz0erm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Neonic Flow/paddle eraser</t>
+          <t>Been playing 8 months. I've done 3 ratings sessions, and my record is 6-16, with a 2.3 rating. I'm starting to think I'm not very good at this sport. Which sucks, because I really like playing.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is a paddle eraser okay to use on the Flow? I know it’s CF but I really just want to triple check. Trying to do a good job of taking care of my first good paddle.
-</t>
+          <t>My first two matches tonight were 11-0 walkovers.  I was targeted both matches and couldn't hit anything correctly.  My only two wins were comebacks (5-10 and 1-9 down respectively) and were great but mostly I just played like ass, and got beaten up by players I routinely beat at rec. 
+Just venting. I'll probably keep playing, but it just sucks to like playing something so much but not actually get better.</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dry-Abbreviations41</t>
+          <t>AnUdderDay</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxp872/neonic_flowpaddle_eraser/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cz0erm/been_playing_8_months_ive_done_3_ratings_sessions/</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45434.08916666666</v>
+        <v>45435.78413194444</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1cy4gq6</t>
+          <t>1cz0y9o</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>How to perfect a dink on the 3rd shot?</t>
+          <t>Should I sign up for Singles?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A novice pickleball player here from India, have been playing the game for a couple of months now. I tend to raise the ball to a height which becomes perfect to smash for my opponents in cases when i’m playing the third shot or when the opponent smashes the ball between my chest and waist levels. Can anyone suggest some drills to fix this? Also, how can I improve my wrist positioning near the kitchen line, paddle angle and overall game sense?</t>
+          <t>I have been playing since January. Only been in rookie tournaments on 2.5Mix. I see myself as a solid 2.5 but people see me as 3.0 at least. I ussually play only mix doubles but i think I do well playing singles but have only practice with men 3.0-3.5 and do maybe 5 points on average and win when i play win men 2.5
+Im wondering if if its too rookie for me to sign up for a real DUPR tournament in singles. The y grouped 2.5 and 3.0 Women Singles in the same category. Im worried that i will be smoked since its a really well known tournament. Should i wait to have more experience ?</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1316,282 +1313,57 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Rutwik_07_10</t>
+          <t>Extreme_Sport_7490</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cy4gq6/how_to_perfect_a_dink_on_the_3rd_shot/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cz0y9o/should_i_sign_up_for_singles/</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45434.68525462963</v>
+        <v>45435.79966435185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1cy37iw</t>
+          <t>1cz1hgq</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Best Standard/Wide Body Gen 1 Paddles in 2024?</t>
+          <t>[Meta] Sidebar links to pickleball rules and rules summary?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>I'm currently playing with a thermoformed paddle (Legacy Pro-S) but miss the control and feel of the non-thermo paddles and am trying to figure out what the best non-thermoformed paddles in 2024 are (I know they're a dying breed).  I very much value control over power, but still want something with a smidge of power/pop to help with serves and returns.  Currently looking at the following and would appreciate input on any, and also open to recommendations.
-*  Wilson Tempo 16 -- Looks like a traditional Gen 1 carbon fiber paddle, but has a unibody construction.  Not sure if that will make it a little more power oriented than traditional Gen 1, but nonetheless intriguing.
-* Head Radical Raw -- Only 15mm but not sure how the core plays.
-* Vanguard Control S2/Epic -- I thought the Vanguard 2.0 line was a little too plush, but wondering if the new CF skin and "upgraded" core provide a little more power over the original.
-* Franklin FS Tour -- I know this is thermoformed, but saw in a discussion thread that it had very little pop.  Would love any feedback from those who have played with it.
-As mentioned, other suggestions would also be greatly appreciated!  TIA!</t>
+          <t>Can the r/pickleball mods please put links to the sport's rules and rules summary in the sidebar? It'd be nice if more people read these and if fewer people posted questions that are clearly spelled out already.
+https://usapickleball.org/what-is-pickleball/official-rules/rules-summary/
+https://usapickleball.org/docs/USA-Pickleball-Official-Rulebook-2024-v1.pdf</t>
         </is>
       </c>
       <c r="D25" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>GothicHeap</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
         <v>0</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>thewaybackboy</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cy37iw/best_standardwide_body_gen_1_paddles_in_2024/</t>
+          <t>https://www.reddit.com/r/Pickleball/comments/1cz1hgq/meta_sidebar_links_to_pickleball_rules_and_rules/</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45434.65002314815</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1cxshum</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Rule Question- Balls close to the net</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Let’s say a ball barely rolls over the net and ends up in the net. If I go up with my paddle to try and tap it back over and my paddle touches the net, would I lose the point? It happened to me today and there was almost no way I could hit the ball without touching the net accidentally. Thanks for the clarification!
-Edit- Thanks guys. That’s what I thought that it was a fault. It makes the netballs that roll over that much more deadly if it ever happens. </t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>runningwithguns</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxshum/rule_question_balls_close_to_the_net/</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>45434.21704861111</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1cxqmlj</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Ranking of players</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Non-top 100 player rankings, how to check?</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Interesting-Emu8070</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxqmlj/ranking_of_players/</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>45434.14116898148</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1cxppyq</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Juciao Paddles - Opinions?</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What’s the deal with these? Are they actually comparable to $150+ name brand paddles? 
-</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94jmoore</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>16</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxppyq/juciao_paddles_opinions/</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>45434.10700231481</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>1cxp9pu</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>USAP/PPA/Paddle Meeting</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>I was not watching, and I am hosting a tournament in 2 weeks, and while it is more of a casual thing, I personally want to ban Gen 3's because I think they take away from the core of the sport
-What is likely going to come from this meeting so I can either justify my decisions or let everyone play with their gen 3's and not be, essentially, held accountable for what occurs.</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Key-Gap2781</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxp9pu/usapppapaddle_meeting/</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>45434.09071759259</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1cxoc3a</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Bad experience dealing with Pickleball Apes warranty claim?</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>I have a Pro Line Energy S from Pickleball Apes that has lost all its grit and spin after a few months. So much so that I went back to an older cheapo paddle that I had used for a longer period of time. 
-While Pickleball Apes stated that the paddle would be warranty for a year, they had denied my claim, which go against their term of sales. 
-Has anyone else had bad experience with them? I am pretty dismay considered that many people had said they were one of the better ones with warranty out there. Their pussyfooting and excuses have said otherwise.
-P.S. which company besides Selkirk would make sure that a paddle will last for at least a year?</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>choice-econ</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>25</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxoc3a/bad_experience_dealing_with_pickleball_apes/</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>45434.05703703704</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>1cxe278</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Paddle Selection</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>I just started playing pickleball today and having played tennis for about 10 years, I can say I was pretty good (beat a 4.0). I'm looking to purchase a paddle to play more over the summer. I dont want to spend too much (maybe $50 or so). Where and which paddle should I purchase?</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Particular-Sorbet706</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>25</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://www.reddit.com/r/Pickleball/comments/1cxe278/paddle_selection/</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>45433.74465277778</v>
+        <v>45435.81489583333</v>
       </c>
     </row>
   </sheetData>
